--- a/biology/Histoire de la zoologie et de la botanique/Liste_des_premiers_médecins_du_roi/Liste_des_premiers_médecins_du_roi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Liste_des_premiers_médecins_du_roi/Liste_des_premiers_médecins_du_roi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_premiers_m%C3%A9decins_du_roi</t>
+          <t>Liste_des_premiers_médecins_du_roi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste permet de comprendre les diverses évolutions chronologiques de la charge de premier médecin du roi de France. Elle vient en complément de la Catégorie:Premier médecin du roi, qui fournit une liste des membres par ordre alphabétique.
 Le premier médecin du roi, ou archiatre, est sous l'Ancien Régime le chef de tous les officiers de santé au service du monarque. Il a l'autorité suprême pour l'organisation de la médecine dans tout le royaume.
@@ -490,42 +502,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Liste_des_premiers_m%C3%A9decins_du_roi</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_premiers_m%C3%A9decins_du_roi</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Liste des premiers médecins du roi</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sous les Mérovingiens (481-751) puis Carolingiens (751-987)
-Sous les Capétiens directs (987-1328)
-Sous les Valois (1328-1589)
-Sous les Bourbons (1589-1793)
-Sous Napoléon Ier (1804-1814)
-Sous la Restauration (1815-1848)
-Sous le Second Empire (1852-1870)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
